--- a/hw2/ufo.xlsx
+++ b/hw2/ufo.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -2121,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -6368,22 +6367,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>